--- a/vendas_template.xlsx
+++ b/vendas_template.xlsx
@@ -14,81 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>cliente</t>
-  </si>
-  <si>
-    <t>data</t>
   </si>
   <si>
     <t>valor</t>
   </si>
   <si>
-    <t>colecao</t>
-  </si>
-  <si>
-    <t>vendedor</t>
-  </si>
-  <si>
-    <t>regional</t>
-  </si>
-  <si>
-    <t>Cliente A</t>
-  </si>
-  <si>
-    <t>Cliente B</t>
-  </si>
-  <si>
-    <t>Cliente C</t>
-  </si>
-  <si>
-    <t>Cliente D</t>
-  </si>
-  <si>
-    <t>2025-10-01</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>2025-09-20</t>
-  </si>
-  <si>
-    <t>2025-07-05</t>
-  </si>
-  <si>
-    <t>2024-12-12</t>
-  </si>
-  <si>
-    <t>Primavera</t>
-  </si>
-  <si>
-    <t>Outono</t>
-  </si>
-  <si>
-    <t>Verão</t>
-  </si>
-  <si>
-    <t>João</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Sul</t>
-  </si>
-  <si>
-    <t>Sudeste</t>
-  </si>
-  <si>
-    <t>Norte</t>
+    <t>Exemplo</t>
   </si>
 </sst>
 </file>
@@ -446,130 +380,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>5000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>8000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>15000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+      <c r="B2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_template.xlsx
+++ b/vendas_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>cliente</t>
   </si>
@@ -22,7 +22,37 @@
     <t>valor</t>
   </si>
   <si>
-    <t>Exemplo</t>
+    <t>colecao</t>
+  </si>
+  <si>
+    <t>vendedor</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>Cliente A</t>
+  </si>
+  <si>
+    <t>Cliente B</t>
+  </si>
+  <si>
+    <t>Coleção 1</t>
+  </si>
+  <si>
+    <t>Coleção 2</t>
+  </si>
+  <si>
+    <t>Vendedor 1</t>
+  </si>
+  <si>
+    <t>Vendedor 2</t>
+  </si>
+  <si>
+    <t>Região 1</t>
+  </si>
+  <si>
+    <t>Região 2</t>
   </si>
 </sst>
 </file>
@@ -380,26 +410,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
